--- a/Product Backlog.xlsx
+++ b/Product Backlog.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youssef Nagy\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A1CCE2-7F5C-4B99-988E-CA937E749716}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9195"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
   <si>
     <t>Team Name: Team 404</t>
   </si>
@@ -153,9 +159,6 @@
     <t>As an admin i should be able to confirm a live event so that i can let the partner host the event and notify</t>
   </si>
   <si>
-    <t>Viewing system</t>
-  </si>
-  <si>
     <t>3.4.1</t>
   </si>
   <si>
@@ -196,13 +199,58 @@
   </si>
   <si>
     <t>View</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>As an admin I should be able to send a notification to anyone who registers so they can come and sign a contract</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Omar</t>
+  </si>
+  <si>
+    <t>Hania</t>
+  </si>
+  <si>
+    <t>Lobna</t>
+  </si>
+  <si>
+    <t>Nagy</t>
+  </si>
+  <si>
+    <t>Islam</t>
+  </si>
+  <si>
+    <t>Ismail</t>
+  </si>
+  <si>
+    <t>Hagar</t>
+  </si>
+  <si>
+    <t>Karim</t>
+  </si>
+  <si>
+    <t>Gomana</t>
+  </si>
+  <si>
+    <t>As an admin I should be able to add signature time to candidate profile</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>Rawi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -518,61 +566,63 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="183.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="150" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="D7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>6</v>
@@ -588,7 +638,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -597,12 +647,15 @@
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.1000000000000001</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="C9" t="s">
+        <v>62</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -614,12 +667,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>62</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
@@ -628,12 +684,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.3</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
       </c>
       <c r="D11">
         <v>5</v>
@@ -645,13 +704,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.4</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
       <c r="D12">
         <v>3</v>
       </c>
@@ -662,13 +724,16 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.5</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
       <c r="D13">
         <v>5</v>
       </c>
@@ -679,16 +744,19 @@
         <v>13</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.6</v>
       </c>
       <c r="B14" t="s">
         <v>28</v>
       </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
       <c r="D14">
         <v>5</v>
       </c>
@@ -699,13 +767,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.7</v>
       </c>
       <c r="B15" t="s">
         <v>29</v>
       </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
       <c r="D15">
         <v>3</v>
       </c>
@@ -716,12 +787,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>1.8</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
         <v>9</v>
@@ -730,70 +801,91 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
       </c>
+      <c r="C18" t="s">
+        <v>64</v>
+      </c>
       <c r="D18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B19" t="s">
         <v>32</v>
       </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
       <c r="D19">
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B20" t="s">
         <v>37</v>
       </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
       <c r="D20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B21" t="s">
         <v>36</v>
       </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
       <c r="D21">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" t="s">
         <v>15</v>
       </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
       <c r="D22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E22" t="s">
         <v>9</v>
@@ -802,7 +894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2.1</v>
       </c>
@@ -816,24 +908,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2.2000000000000002</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
       </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
       <c r="D24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B25" t="s">
         <v>40</v>
       </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
       <c r="D25">
         <v>5</v>
       </c>
@@ -844,18 +942,21 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2.2999999999999998</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
       </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
       <c r="D26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>20</v>
       </c>
@@ -866,7 +967,29 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2.4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2.5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>3</v>
       </c>
@@ -875,21 +998,27 @@
       </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3.1</v>
       </c>
       <c r="B31" t="s">
         <v>22</v>
       </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
       <c r="D31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>23</v>
       </c>
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
       <c r="D32">
         <v>3</v>
       </c>
@@ -900,18 +1029,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3.2</v>
       </c>
       <c r="B33" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>23</v>
       </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
       <c r="E34" t="s">
         <v>9</v>
       </c>
@@ -919,13 +1054,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3.3</v>
       </c>
       <c r="B35" t="s">
         <v>43</v>
       </c>
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
       <c r="D35">
         <v>3</v>
       </c>
@@ -936,13 +1074,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3.4</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
       </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
       <c r="D36">
         <v>3</v>
       </c>
@@ -953,39 +1094,48 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="B38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3.5</v>
       </c>
       <c r="B39" t="s">
         <v>48</v>
       </c>
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
       <c r="D39">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>71</v>
       </c>
       <c r="D40">
         <v>5</v>
@@ -997,12 +1147,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3.6</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>50</v>
+      </c>
+      <c r="C41" t="s">
+        <v>72</v>
       </c>
       <c r="D41">
         <v>3</v>
@@ -1014,24 +1167,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3.7</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>72</v>
       </c>
       <c r="D42">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43">
-        <v>3.8</v>
-      </c>
-      <c r="B43" t="s">
-        <v>27</v>
-      </c>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>17</v>
       </c>
